--- a/sn6_0226/최저가.xlsx
+++ b/sn6_0226/최저가.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ATXH763-IWK</t>
   </si>
@@ -32,16 +32,31 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>AC-12YCL10FW</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>AMSM993-IWK</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>상품명</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC-12YCL10FW</t>
+  </si>
+  <si>
+    <t>\238,370</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>\652,490</t>
+  </si>
+  <si>
+    <t>\526,700</t>
+  </si>
+  <si>
+    <t>\352,600</t>
+  </si>
+  <si>
+    <t>\785,210</t>
   </si>
 </sst>
 </file>
@@ -960,7 +975,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -971,7 +986,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -982,38 +997,48 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">

--- a/sn6_0226/최저가.xlsx
+++ b/sn6_0226/최저가.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ATXH763-IWK</t>
   </si>
@@ -23,17 +23,6 @@
   </si>
   <si>
     <t>DN2M160-HWK</t>
-  </si>
-  <si>
-    <t>DQ168PSE.AKOR</t>
-  </si>
-  <si>
-    <t>ACL-140MA</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMSM993-IWK</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>상품명</t>
@@ -43,8 +32,31 @@
     <t>AC-12YCL10FW</t>
   </si>
   <si>
+    <t>ACL-140MA</t>
+  </si>
+  <si>
+    <t>AMSM993-IWK</t>
+  </si>
+  <si>
+    <t>AS309DSA</t>
+  </si>
+  <si>
+    <t>DQ168PSE</t>
+  </si>
+  <si>
+    <t>DXTM100-IWK</t>
+  </si>
+  <si>
+    <t>EDHA14W3H</t>
+  </si>
+  <si>
+    <t>PA91-406GY</t>
+  </si>
+  <si>
+    <t>WDHB16W3HD</t>
+  </si>
+  <si>
     <t>\238,370</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>\652,490</t>
@@ -53,16 +65,16 @@
     <t>\526,700</t>
   </si>
   <si>
-    <t>\352,600</t>
-  </si>
-  <si>
-    <t>\785,210</t>
+    <t>\1,404,300</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -649,7 +661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -659,7 +671,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -975,7 +990,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -986,7 +1001,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -997,82 +1012,108 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>359400</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>359400</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>251400</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>365400</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>179400</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>198000</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>449400</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>221400</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>